--- a/public/downloads/release/Report_Deposit.xlsx
+++ b/public/downloads/release/Report_Deposit.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Report 12 Oct 2021" sheetId="1" r:id="rId4"/>
+    <sheet name="Report 27 Apr 2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
@@ -15,17 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Deposit Report</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Publisher</t>
   </si>
   <si>
@@ -35,73 +41,101 @@
     <t>Language</t>
   </si>
   <si>
-    <t>Division</t>
+    <t>Relation</t>
   </si>
   <si>
     <t>Right Management</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Download - View</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>Inggris</t>
-  </si>
-  <si>
-    <t>Division 2</t>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Testing one</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Testing app one academy
+this description</t>
+  </si>
+  <si>
+    <t>publisher one</t>
+  </si>
+  <si>
+    <t>02-03-2022</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>relation one</t>
   </si>
   <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>avavavavava</t>
-  </si>
-  <si>
-    <t>Ijul</t>
-  </si>
-  <si>
-    <t>2021-10-09</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Division 3</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>abcdef</t>
-  </si>
-  <si>
-    <t>2021-10-08</t>
-  </si>
-  <si>
-    <t>Approved</t>
+    <t>creator one</t>
+  </si>
+  <si>
+    <t>Subject C</t>
+  </si>
+  <si>
+    <t>type one</t>
+  </si>
+  <si>
+    <t>format one</t>
+  </si>
+  <si>
+    <t>contributor one</t>
+  </si>
+  <si>
+    <t>identifier one</t>
+  </si>
+  <si>
+    <t>source one</t>
+  </si>
+  <si>
+    <t>coverage one</t>
+  </si>
+  <si>
+    <t>Testing one two</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>ZA4450 Databases</t>
+  </si>
+  <si>
+    <t>Testing one 33333</t>
   </si>
 </sst>
 </file>
@@ -109,9 +143,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -146,11 +189,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -458,107 +504,180 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="18.995361" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="5.855713" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customHeight="1" ht="40">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" customHeight="1" ht="40">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:9" customHeight="1" ht="30">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" customHeight="1" ht="30">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>10712</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>19</v>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>10713</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
@@ -568,42 +687,90 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>26</v>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>10714</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
